--- a/imageCreationExcel/back/112/112_0.xlsx
+++ b/imageCreationExcel/back/112/112_0.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.013978533090217</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6265182589137233</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15.98216422674554</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_1_contrast1.014_gamma0.627_equalization15.982.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,15 +537,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.084914718056241</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9369529246265005</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>28.03731104437548</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_8_contrast1.085_sharpness0.937_equalization28.037.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8436512858142777</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1930211384036156</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>21.34957218357641</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_I_contrast0.844_sharpness0.193_equalization21.35.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.56374743441773</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8911596415459572</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.1448806318348794</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_7_brightness5.564_gamma0.891_sharpness0.145.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.398493005452835</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8965668474224662</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5677104355893341</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_B_brightness2.398_gamma0.897_sharpness0.568.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28.84662696598572</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.015984863092058</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.6217398382338084</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_9_brightness28.847_contrast1.016_gamma0.622.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8852380562360133</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.1422293558301466</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>18.50411080033773</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_contrast0.885_sharpness0.142_equalization18.504.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.69641100781538</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9535431243378127</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18.72476667307023</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_B_gamma0.696_sharpness0.954_equalization18.725.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8117601763851507</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.030062475091629</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18.28228622207877</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_3_contrast0.812_gamma1.03_equalization18.282.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.957101169072977</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.2536151984096711</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>30.53484744985694</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_P_contrast0.957_sharpness0.254_equalization30.535.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.103434594867915</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8496977055265058</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8903362392145477</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_7_contrast1.103_gamma0.85_sharpness0.89.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28.0032790674391</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.191823491759648</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8732518661952331</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_brightness28.003_contrast1.192_gamma0.873.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6936478247103084</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9606362181431951</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>30.97611886684531</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_P_gamma0.694_sharpness0.961_equalization30.976.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.99123123816544</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9524296626483219</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.1901913677419368</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_T_brightness18.991_contrast0.952_sharpness0.19.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27.51545701948917</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.044513432120095</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7556761828188471</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_brightness27.515_contrast1.045_gamma0.756.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28.62174540006488</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.979759085691421</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.03314541768593</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_E_brightness28.622_contrast0.98_gamma1.033.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8650941816530481</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.6522095241144132</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>27.43988597291724</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_C_gamma0.865_sharpness0.652_equalization27.44.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.03280995353802</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5025514752629721</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>13.26664664954966</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_C_contrast1.033_sharpness0.503_equalization13.267.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2947363330636354</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.054172169190359</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.7944184797309138</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_brightness0.295_contrast1.054_gamma0.794.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.09863001324013</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8720247494608424</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.1418834666512121</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_contrast1.099_gamma0.872_sharpness0.142.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,24 +1326,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.6337190836349813</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.3187798565476544</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13.17154617350423</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_I_gamma0.634_sharpness0.319_equalization13.172.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.102444586324397</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.6151838496117517</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>22.65869884472916</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_contrast1.102_sharpness0.615_equalization22.659.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22.60891629659808</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.822823878247368</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.5505248447883828</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_T_brightness22.609_gamma0.823_sharpness0.551.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.156530743318753</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1294839795522394</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>27.02442216430871</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_P_contrast1.157_sharpness0.129_equalization27.024.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9340027185315616</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.799811583937355</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12.09617484954835</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_contrast0.934_gamma0.8_equalization12.096.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9651421014833422</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7191966926108524</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.3970729949642411</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_S_contrast0.965_gamma0.719_sharpness0.397.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.111430658060806</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5115335825378755</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.4433432278533825</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_0_contrast1.111_gamma0.512_sharpness0.443.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>27.67222168205863</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9553267061881114</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.5519696029721013</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_3_brightness27.672_contrast0.955_gamma0.552.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.726983994727184</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8203535969291991</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.6845202627770888</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_I_brightness1.727_gamma0.82_sharpness0.685.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9265927884183012</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.3521938407743823</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14.98500080075764</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_1_contrast0.927_sharpness0.352_equalization14.985.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.380610073492366</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.197970226480612</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.4222548705100561</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_brightness3.381_contrast1.198_sharpness0.422.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9949716064759269</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6516321708659782</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>12.80884890618856</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_T_contrast0.995_sharpness0.652_equalization12.809.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9.907530823777876</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.042093115374557</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.026496589120726</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_2_brightness9.908_contrast1.042_gamma1.026.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15.20716709021046</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7993372053571211</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.3333852900505254</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_1_brightness15.207_gamma0.799_sharpness0.333.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.161927082160991</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6414313581252287</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5.526356889700618</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_contrast1.162_sharpness0.641_equalization5.526.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7.148648991971998</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9583070700852946</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.5742291456334867</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_C_brightness7.149_gamma0.958_sharpness0.574.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5780811893772461</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9063633431374629</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>20.15371355356237</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_3_gamma0.578_sharpness0.906_equalization20.154.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>19.07382377671617</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.124444844889879</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.3071033769800114</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_8_brightness19.074_contrast1.124_sharpness0.307.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,15 +2091,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10.87826727996893</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9086441203705055</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.8016803475941237</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_8_brightness10.878_contrast0.909_sharpness0.802.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2129,34 +2129,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8061040554649743</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.6277965162422661</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.112923060830991</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_T_contrast0.806_sharpness0.628_equalization6.113.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10.46896570704769</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.104644999742105</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.5042891282743958</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_T_brightness10.469_contrast1.105_sharpness0.504.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.086209838708471</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.050692849805919</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.3949705184687526</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_8_contrast1.086_gamma1.051_sharpness0.395.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,30 +2259,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8242136482228325</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8562027013266529</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.08215240362645959</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_I_contrast0.824_gamma0.856_sharpness0.082.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9378602044234567</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.7359593073651529</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>27.74852084562717</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_contrast0.938_gamma0.736_equalization27.749.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6910759552691238</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.6671237173372153</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10.50891218854771</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_T_gamma0.691_sharpness0.667_equalization10.509.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9688676370769486</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.03924675063956833</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>17.35311377954849</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_T_contrast0.969_sharpness0.039_equalization17.353.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.025462886517784</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9833246597241534</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>22.82043387002492</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_2_contrast1.025_gamma0.983_equalization22.82.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8066608832774717</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6515964771577744</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>19.39796272009369</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_P_contrast0.807_gamma0.652_equalization19.398.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
